--- a/买房计划.xlsx
+++ b/买房计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8505" activeTab="2"/>
+    <workbookView windowWidth="19905" windowHeight="6915" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="外借款" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>xulongcheng</author>
+    <author>lisixin</author>
   </authors>
   <commentList>
-    <comment ref="M8" authorId="0">
+    <comment ref="M7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,6 +48,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="E8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lisixin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+仍有35000元未到账</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -57,6 +80,28 @@
     <author>lisixin</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>lisixin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+公积金到账后归还</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D3" authorId="0">
       <text>
         <r>
@@ -75,8 +120,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-14-16年：10000元
-17年：18600元</t>
+14-16年：9400元
+17年：18000元</t>
         </r>
       </text>
     </comment>
@@ -85,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>借款详情</t>
   </si>
@@ -138,6 +183,9 @@
     <t>私人借钱</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>2020年5月前还清</t>
   </si>
   <si>
@@ -150,57 +198,45 @@
     <t>鲁迪</t>
   </si>
   <si>
-    <t>胡启明</t>
+    <t>吴康叠</t>
+  </si>
+  <si>
+    <t>家人借钱</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>李超明</t>
+  </si>
+  <si>
+    <t>2018-2020</t>
+  </si>
+  <si>
+    <t>20,000</t>
+  </si>
+  <si>
+    <t>2018年底2万，2019年6月4万，2020年5月2万</t>
+  </si>
+  <si>
+    <t>奶奶</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>徐龙成</t>
+  </si>
+  <si>
+    <t>侯花</t>
+  </si>
+  <si>
+    <t>余健</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>40,000</t>
-  </si>
-  <si>
-    <t>2018年底</t>
-  </si>
-  <si>
-    <t>吴康叠</t>
-  </si>
-  <si>
-    <t>家人借钱</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>李超明</t>
-  </si>
-  <si>
-    <t>2018-2020</t>
-  </si>
-  <si>
-    <t>20,000</t>
-  </si>
-  <si>
-    <t>2018年底2万，2019年6月4万，2020年5月2万</t>
-  </si>
-  <si>
-    <t>奶奶</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>李思欣爸爸</t>
-  </si>
-  <si>
-    <t>徐龙成</t>
-  </si>
-  <si>
-    <t>侯花</t>
-  </si>
-  <si>
-    <t>余健</t>
-  </si>
-  <si>
     <t>30,000</t>
   </si>
   <si>
@@ -276,9 +312,6 @@
     <t>购房定金</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>龙成招行转账</t>
   </si>
   <si>
@@ -327,6 +360,18 @@
     <t>水费</t>
   </si>
   <si>
+    <t>看护费</t>
+  </si>
+  <si>
+    <t>10000元</t>
+  </si>
+  <si>
+    <t>档口铺租</t>
+  </si>
+  <si>
+    <t>预借余额宝</t>
+  </si>
+  <si>
     <t>渠道</t>
   </si>
   <si>
@@ -345,6 +390,9 @@
     <t>公款</t>
   </si>
   <si>
+    <t>预借60000元</t>
+  </si>
+  <si>
     <t>公司旅游费</t>
   </si>
   <si>
@@ -354,7 +402,10 @@
     <t>个人理财</t>
   </si>
   <si>
-    <t>外借姑妈18000元</t>
+    <t>外借姑妈10000元</t>
+  </si>
+  <si>
+    <t>零钱通</t>
   </si>
   <si>
     <t>支付宝</t>
@@ -363,7 +414,7 @@
     <t>家人理财-奶奶</t>
   </si>
   <si>
-    <t>到账后转出余额宝20000元</t>
+    <t>到期后再转出25000元</t>
   </si>
   <si>
     <t>家人理财-爸爸</t>
@@ -380,12 +431,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -411,25 +462,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -448,30 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -480,55 +493,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,6 +514,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -554,6 +552,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -594,186 +645,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -798,54 +849,38 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,6 +929,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -902,10 +990,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,137 +1002,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,31 +1142,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1513,542 +1616,496 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="25" style="14" customWidth="1"/>
-    <col min="5" max="6" width="12.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="15" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="15" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="37.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="25" style="19" customWidth="1"/>
+    <col min="5" max="6" width="12.625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="20" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="37.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:13">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21" t="s">
+    <row r="1" s="12" customFormat="1" spans="1:13">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="21"/>
-    </row>
-    <row r="2" s="8" customFormat="1" spans="1:14">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" s="12" customFormat="1" spans="1:14">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="14">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="20">
         <v>5000</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="30">
         <v>2020</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="M3" s="36" t="s">
+      <c r="G3" s="21" t="s">
         <v>17</v>
       </c>
+      <c r="K3" s="40"/>
+      <c r="M3" s="41" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="14">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20">
+        <v>20000</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="M4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E5" s="20">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="21">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="40"/>
+      <c r="M5" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="19">
+        <v>7</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="20">
         <v>20000</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="M4" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="F6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="21">
+        <v>20000</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="M6" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="19">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="16">
-        <v>5000</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="M5" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="15">
-        <v>40000</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="14">
-        <v>7</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="20">
+        <v>80000</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="15">
-        <v>40000</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="16">
-        <v>20000</v>
-      </c>
-      <c r="K7" s="35"/>
-      <c r="M7" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="14">
-        <v>8</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="15">
-        <v>80000</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="J7" s="20">
         <f>(2*5%*0.5+4*5%+2*5%*2)*10000</f>
         <v>4500</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K7" s="40">
         <v>0.05</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="19">
+        <v>9</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="20">
+        <v>25000</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="K8" s="40"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="19">
+        <v>11</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="14">
-        <v>9</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="20">
+        <v>30000</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="21">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="M9" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="19">
+        <v>12</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="15">
-        <v>60000</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="C10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="14">
-        <v>10</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="20">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="42">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="11" s="18" customFormat="1" spans="1:13">
+      <c r="A11" s="19">
+        <v>13</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="C11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="32">
         <v>20000</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="35"/>
-      <c r="M10" s="36"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="14">
-        <v>11</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="15">
-        <v>30000</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="16">
-        <v>10000</v>
-      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="35"/>
-      <c r="M11" s="36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="14">
-        <v>12</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" s="18" customFormat="1" spans="1:13">
+      <c r="A12" s="19">
         <v>14</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="15">
-        <v>30000</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="E12" s="32">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="37">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="13" s="13" customFormat="1" spans="1:13">
-      <c r="A13" s="14">
-        <v>13</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="26" t="s">
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="26" t="s">
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="27">
-        <v>20000</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
-    </row>
-    <row r="14" s="13" customFormat="1" spans="1:13">
-      <c r="A14" s="14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="27">
-        <v>20000</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="15">
-        <f>SUM(E3:E12)</f>
-        <v>335000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="E15" s="20">
+        <f>SUM(E3:E10)</f>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="37"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="37"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="25"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="25"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="32"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="25"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="I25" s="25"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="I27" s="25"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="I30" s="25"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2079,99 +2136,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="G2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="I2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="11">
+      <c r="A3" s="15">
         <v>10000</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="16">
         <v>2000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="16">
         <v>5500</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="16">
         <v>800</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="16">
         <v>2500</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="16">
         <f>12*4*22</f>
         <v>1056</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="16">
         <v>300</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="16">
         <f>3.4*60.7</f>
         <v>206.38</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="16">
         <v>6300</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="17">
         <f>SUM(A3:D3)</f>
         <v>18300</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="12">
         <v>9804</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2191,7 +2248,7 @@
   <sheetPr/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2201,56 +2258,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="7">
+        <v>59</v>
+      </c>
+      <c r="B2" s="11">
         <v>50000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="7">
+        <v>17</v>
+      </c>
+      <c r="D2" s="11">
         <v>50000</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="7">
+        <v>61</v>
+      </c>
+      <c r="B3" s="11">
         <v>21000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="7">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11">
         <v>10000</v>
       </c>
       <c r="E3" s="2">
@@ -2258,20 +2315,20 @@
         <v>11000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="7">
+        <v>63</v>
+      </c>
+      <c r="B4" s="11">
         <v>300000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11">
         <v>50000</v>
       </c>
       <c r="E4" s="2">
@@ -2282,15 +2339,15 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="7">
+        <v>64</v>
+      </c>
+      <c r="B5" s="11">
         <v>32000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="7">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -2301,15 +2358,15 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="7">
+        <v>65</v>
+      </c>
+      <c r="B6" s="11">
         <v>3300</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11">
         <v>0</v>
       </c>
       <c r="E6" s="2">
@@ -2320,15 +2377,15 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2">
         <v>400</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11">
         <v>0</v>
       </c>
       <c r="E7" s="2">
@@ -2338,13 +2395,13 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
+      <c r="A8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12">
         <f>SUM(E2:E7)</f>
         <v>296700</v>
       </c>
@@ -2361,128 +2418,190 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2">
         <v>20000</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2">
         <v>10000</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>43240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2">
         <v>2250</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>43235</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2">
         <v>3000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>43236</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2">
         <v>500</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>43243</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B7" s="2">
         <v>400</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>43243</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4500</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43256</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7">
+        <f>10000-B8</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3300</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43259</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="8">
+        <f>E8-B9</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="8">
+        <v>500</v>
+      </c>
+      <c r="C10" s="9">
+        <v>43260</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="8">
+        <f>E9-B10</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5400</v>
+      </c>
+      <c r="C11" s="9">
+        <v>43261</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2493,10 +2612,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B29:B30"/>
+      <selection activeCell="B9" sqref="B9:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2516,7 +2635,7 @@
         <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>83</v>
@@ -2527,8 +2646,7 @@
         <v>84</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM(D2:D3)</f>
-        <v>118600</v>
+        <v>57400</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>85</v>
@@ -2536,7 +2654,9 @@
       <c r="D2" s="2">
         <v>90000</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -2544,141 +2664,211 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2">
-        <v>28600</v>
+        <v>27400</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2">
-        <f>D4+D5-18000</f>
         <v>12000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10000</v>
+        <v>89</v>
+      </c>
+      <c r="D4" s="3">
+        <v>30000</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2">
-        <f>SUM(D6:D7)</f>
-        <v>95000</v>
+        <v>8000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="2">
-        <v>70000</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45000</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="2">
-        <v>25000</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>60000</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="2">
-        <v>20000</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="D8" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="2">
         <v>5000</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2" t="s">
-        <v>95</v>
+      <c r="C12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>80000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/买房计划.xlsx
+++ b/买房计划.xlsx
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>借款详情</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>预借余额宝</t>
+  </si>
+  <si>
+    <t>到账后归还</t>
   </si>
   <si>
     <t>渠道</t>
@@ -431,12 +434,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -462,24 +465,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,20 +509,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -514,55 +522,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -579,32 +540,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -645,19 +648,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,157 +816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,51 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -942,8 +900,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,6 +938,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -974,11 +971,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,149 +993,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,15 +1152,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1624,488 +1618,488 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="17" style="19" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="25" style="19" customWidth="1"/>
-    <col min="5" max="6" width="12.625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="21" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="20" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="22" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="23" customWidth="1"/>
-    <col min="13" max="13" width="37.5" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="17" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25" style="16" customWidth="1"/>
+    <col min="5" max="6" width="12.625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="18" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="37.5" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" spans="1:13">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:13">
+      <c r="A1" s="22"/>
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" s="12" customFormat="1" spans="1:14">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" s="9" customFormat="1" spans="1:14">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <v>5000</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="27">
         <v>2020</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="M3" s="41" t="s">
+      <c r="K3" s="37"/>
+      <c r="M3" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>20000</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="M4" s="41" t="s">
+      <c r="K4" s="37"/>
+      <c r="M4" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="19">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>10000</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>10000</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="M5" s="41" t="s">
+      <c r="K5" s="37"/>
+      <c r="M5" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="19">
+      <c r="A6" s="16">
         <v>7</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>20000</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>20000</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="M6" s="41" t="s">
+      <c r="K6" s="37"/>
+      <c r="M6" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="19">
+      <c r="A7" s="16">
         <v>8</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>80000</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <f>(2*5%*0.5+4*5%+2*5%*2)*10000</f>
         <v>4500</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="37">
         <v>0.05</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="19">
+      <c r="A8" s="16">
         <v>9</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>25000</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="M8" s="41"/>
+      <c r="K8" s="37"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="19">
+      <c r="A9" s="16">
         <v>11</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>30000</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>10000</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="M9" s="41" t="s">
+      <c r="K9" s="37"/>
+      <c r="M9" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="19">
+      <c r="A10" s="16">
         <v>12</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>30000</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="23" t="s">
+      <c r="K10" s="37"/>
+      <c r="L10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="39">
         <v>43313</v>
       </c>
     </row>
-    <row r="11" s="18" customFormat="1" spans="1:13">
-      <c r="A11" s="19">
+    <row r="11" s="15" customFormat="1" spans="1:13">
+      <c r="A11" s="16">
         <v>13</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="29">
         <v>20000</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-    </row>
-    <row r="12" s="18" customFormat="1" spans="1:13">
-      <c r="A12" s="19">
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" s="15" customFormat="1" spans="1:13">
+      <c r="A12" s="16">
         <v>14</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="29">
         <v>20000</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="17">
         <f>SUM(E3:E10)</f>
         <v>220000</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="37"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="30"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="37"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="30"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="37"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="30"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="I23" s="30"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="I23" s="27"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="I24" s="30"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="I25" s="30"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="I25" s="27"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="I26" s="30"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="I27" s="30"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="I28" s="30"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2136,99 +2130,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>10000</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <v>2000</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>5500</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>800</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="13">
         <v>2500</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <f>12*4*22</f>
         <v>1056</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="13">
         <v>300</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <f>3.4*60.7</f>
         <v>206.38</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13">
         <v>6300</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <f>SUM(A3:D3)</f>
         <v>18300</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>9804</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2258,22 +2252,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2281,13 +2275,13 @@
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>50000</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>50000</v>
       </c>
       <c r="E2" s="2">
@@ -2301,13 +2295,13 @@
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>21000</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>10000</v>
       </c>
       <c r="E3" s="2">
@@ -2322,13 +2316,13 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>300000</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>50000</v>
       </c>
       <c r="E4" s="2">
@@ -2341,13 +2335,13 @@
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>32000</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -2360,13 +2354,13 @@
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>3300</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="2">
@@ -2385,7 +2379,7 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="2">
@@ -2395,13 +2389,13 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <f>SUM(E2:E7)</f>
         <v>296700</v>
       </c>
@@ -2421,12 +2415,12 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="4" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2544,10 +2538,10 @@
       <c r="C8" s="6">
         <v>43256</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
         <f>10000-B8</f>
         <v>5500</v>
       </c>
@@ -2562,46 +2556,48 @@
       <c r="C9" s="6">
         <v>43259</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="2">
         <f>E8-B9</f>
         <v>2200</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="2">
         <v>500</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>43260</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="2">
         <f>E9-B10</f>
         <v>1700</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="2">
         <v>5400</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="6">
         <v>43261</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2626,45 +2622,45 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2">
         <v>57400</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2">
         <v>90000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2">
         <v>27400</v>
@@ -2673,13 +2669,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2">
         <v>12000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="3">
         <v>30000</v>
@@ -2688,54 +2684,54 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2">
         <v>8000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2">
         <v>45000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2">
         <v>60000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2">
         <v>25000</v>
@@ -2750,11 +2746,11 @@
         <v>20000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2765,11 +2761,11 @@
         <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2780,11 +2776,11 @@
         <v>30000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2795,11 +2791,11 @@
         <v>5000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2810,11 +2806,11 @@
         <v>80000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2825,11 +2821,11 @@
         <v>20000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2840,11 +2836,11 @@
         <v>30000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2855,11 +2851,11 @@
         <v>40000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/买房计划.xlsx
+++ b/买房计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="6915" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="外借款" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>借款详情</t>
   </si>
@@ -375,6 +375,18 @@
     <t>到账后归还</t>
   </si>
   <si>
+    <t>阿姨看牙</t>
+  </si>
+  <si>
+    <t>200元</t>
+  </si>
+  <si>
+    <t>电费</t>
+  </si>
+  <si>
+    <t>杂费</t>
+  </si>
+  <si>
     <t>渠道</t>
   </si>
   <si>
@@ -405,7 +417,7 @@
     <t>个人理财</t>
   </si>
   <si>
-    <t>外借姑妈10000元</t>
+    <t>外借姑妈5000元</t>
   </si>
   <si>
     <t>零钱通</t>
@@ -434,10 +446,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
@@ -465,15 +477,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,30 +492,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,48 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,7 +523,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,6 +566,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -608,6 +612,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -648,6 +660,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -666,25 +738,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,13 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,103 +822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,17 +903,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,17 +950,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,32 +964,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,6 +982,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -993,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1005,137 +1017,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,6 +1164,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1618,488 +1636,488 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="17" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="25" style="16" customWidth="1"/>
-    <col min="5" max="6" width="12.625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="18" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="17" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="20" customWidth="1"/>
-    <col min="13" max="13" width="37.5" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="25" style="18" customWidth="1"/>
+    <col min="5" max="6" width="12.625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="20" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="19" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="21" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="37.5" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:13">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:13">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" s="9" customFormat="1" spans="1:14">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" s="11" customFormat="1" spans="1:14">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="16">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="19">
         <v>5000</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="29">
         <v>2020</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="M3" s="38" t="s">
+      <c r="K3" s="39"/>
+      <c r="M3" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="19">
         <v>20000</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="K4" s="39"/>
+      <c r="M4" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="16">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="19">
         <v>10000</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="20">
         <v>10000</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="M5" s="38" t="s">
+      <c r="K5" s="39"/>
+      <c r="M5" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="16">
+      <c r="A6" s="18">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="19">
         <v>20000</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="20">
         <v>20000</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="M6" s="38" t="s">
+      <c r="K6" s="39"/>
+      <c r="M6" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="16">
+      <c r="A7" s="18">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="19">
         <v>80000</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="19">
         <f>(2*5%*0.5+4*5%+2*5%*2)*10000</f>
         <v>4500</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="39">
         <v>0.05</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>9</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="19">
         <v>25000</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="37"/>
-      <c r="M8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="16">
+      <c r="A9" s="18">
         <v>11</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="19">
         <v>30000</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="20">
         <v>10000</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="M9" s="38" t="s">
+      <c r="K9" s="39"/>
+      <c r="M9" s="40" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="16">
+      <c r="A10" s="18">
         <v>12</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="19">
         <v>30000</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="20" t="s">
+      <c r="K10" s="39"/>
+      <c r="L10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="41">
         <v>43313</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="1" spans="1:13">
-      <c r="A11" s="16">
+    <row r="11" s="17" customFormat="1" spans="1:13">
+      <c r="A11" s="18">
         <v>13</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="31">
         <v>20000</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-    </row>
-    <row r="12" s="15" customFormat="1" spans="1:13">
-      <c r="A12" s="16">
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" s="17" customFormat="1" spans="1:13">
+      <c r="A12" s="18">
         <v>14</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="31">
         <v>20000</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="19">
         <f>SUM(E3:E10)</f>
         <v>220000</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="27"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="27"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="I23" s="27"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="I23" s="29"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="I24" s="29"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="I25" s="27"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="I26" s="27"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="I26" s="29"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="I27" s="27"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="I28" s="27"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2118,7 +2136,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2130,99 +2148,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>10000</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="15">
         <v>2000</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="15">
         <v>5500</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="15">
         <v>800</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>2500</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <f>12*4*22</f>
         <v>1056</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="15">
         <v>300</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="15">
         <f>3.4*60.7</f>
         <v>206.38</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="15">
         <v>6300</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="16">
         <f>SUM(A3:D3)</f>
         <v>18300</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>9804</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2252,22 +2270,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2275,13 +2293,13 @@
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>50000</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10">
         <v>50000</v>
       </c>
       <c r="E2" s="2">
@@ -2295,13 +2313,13 @@
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>21000</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <v>10000</v>
       </c>
       <c r="E3" s="2">
@@ -2316,13 +2334,13 @@
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>300000</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>50000</v>
       </c>
       <c r="E4" s="2">
@@ -2335,13 +2353,13 @@
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>32000</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
       <c r="E5" s="2">
@@ -2354,13 +2372,13 @@
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>3300</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
       <c r="E6" s="2">
@@ -2379,7 +2397,7 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
       <c r="E7" s="2">
@@ -2389,13 +2407,13 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11">
         <f>SUM(E2:E7)</f>
         <v>296700</v>
       </c>
@@ -2412,10 +2430,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2598,6 +2616,66 @@
       <c r="E11" s="2" t="s">
         <v>80</v>
       </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2">
+        <v>200</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43265</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2">
+        <f>E10-200</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="7">
+        <v>500</v>
+      </c>
+      <c r="C13" s="8">
+        <v>43269</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7">
+        <f>E12-B13</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="7">
+        <v>800</v>
+      </c>
+      <c r="C14" s="8">
+        <v>43271</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="7">
+        <v>300</v>
+      </c>
+      <c r="C15" s="8">
+        <v>43271</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2611,7 +2689,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2622,45 +2700,45 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2">
         <v>57400</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2">
         <v>90000</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2">
         <v>27400</v>
@@ -2669,13 +2747,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2">
         <v>12000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D4" s="3">
         <v>30000</v>
@@ -2684,54 +2762,54 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2">
         <v>45000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2">
         <v>60000</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2">
         <v>25000</v>
@@ -2743,14 +2821,14 @@
         <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2761,11 +2839,11 @@
         <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2776,11 +2854,11 @@
         <v>30000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2791,11 +2869,11 @@
         <v>5000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2806,11 +2884,11 @@
         <v>80000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2821,11 +2899,11 @@
         <v>20000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2836,11 +2914,11 @@
         <v>30000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2851,11 +2929,11 @@
         <v>40000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
